--- a/MEDIA/3013_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-10-01~2020-10-31).xlsx
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31502</v>
+        <v>31557</v>
       </c>
       <c r="E4" t="n">
         <v>71</v>
@@ -612,16 +612,16 @@
         <v>12743</v>
       </c>
       <c r="G4" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="H4" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" t="n">
-        <v>8404</v>
+        <v>8459</v>
       </c>
       <c r="J4" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="K4" t="n">
         <v>26</v>
@@ -657,7 +657,7 @@
         <v>5940</v>
       </c>
       <c r="V4" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -669,10 +669,10 @@
         <v>1.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AA4" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23458</v>
+        <v>23553</v>
       </c>
       <c r="E7" t="n">
         <v>82</v>
@@ -879,16 +879,16 @@
         <v>9801.4</v>
       </c>
       <c r="G7" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="H7" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="n">
-        <v>6927</v>
+        <v>7022</v>
       </c>
       <c r="J7" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="K7" t="n">
         <v>14</v>
@@ -897,7 +897,7 @@
         <v>1140</v>
       </c>
       <c r="M7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>3515</v>
       </c>
       <c r="V7" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W7" t="n">
         <v>42</v>
@@ -933,10 +933,10 @@
         <v>2055</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA7" t="n">
         <v>98</v>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22930</v>
+        <v>24765</v>
       </c>
       <c r="E8" t="n">
         <v>91</v>
@@ -968,25 +968,25 @@
         <v>10804</v>
       </c>
       <c r="G8" t="n">
-        <v>47.1</v>
+        <v>43.6</v>
       </c>
       <c r="H8" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" t="n">
-        <v>5959.8</v>
+        <v>6079.8</v>
       </c>
       <c r="J8" t="n">
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L8" t="n">
-        <v>545</v>
+        <v>2260</v>
       </c>
       <c r="M8" t="n">
-        <v>2.4</v>
+        <v>9.1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>235</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T8" t="n">
         <v>24</v>
@@ -1013,7 +1013,7 @@
         <v>3440</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>13.9</v>
       </c>
       <c r="W8" t="n">
         <v>43</v>
@@ -1022,10 +1022,10 @@
         <v>1947.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="AA8" t="n">
         <v>99</v>
@@ -1048,25 +1048,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25864</v>
+        <v>27373</v>
       </c>
       <c r="E9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>8747</v>
+        <v>9216</v>
       </c>
       <c r="G9" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="H9" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" t="n">
-        <v>8303</v>
+        <v>8468</v>
       </c>
       <c r="J9" t="n">
-        <v>32.1</v>
+        <v>30.9</v>
       </c>
       <c r="K9" t="n">
         <v>27</v>
@@ -1075,7 +1075,7 @@
         <v>2105</v>
       </c>
       <c r="M9" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="N9" t="n">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>1600</v>
       </c>
       <c r="P9" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
@@ -1093,28 +1093,28 @@
         <v>200</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="T9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U9" t="n">
-        <v>2655</v>
+        <v>3185</v>
       </c>
       <c r="V9" t="n">
-        <v>10.3</v>
+        <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="X9" t="n">
-        <v>2254.4</v>
+        <v>2599.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AA9" t="n">
         <v>105</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26223</v>
+        <v>26224</v>
       </c>
       <c r="E10" t="n">
         <v>94</v>
@@ -1161,7 +1161,7 @@
         <v>25</v>
       </c>
       <c r="L10" t="n">
-        <v>2574.95</v>
+        <v>2575</v>
       </c>
       <c r="M10" t="n">
         <v>9.800000000000001</v>
@@ -1226,16 +1226,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31924</v>
+        <v>31716</v>
       </c>
       <c r="E11" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" t="n">
-        <v>9533</v>
+        <v>9725</v>
       </c>
       <c r="G11" t="n">
-        <v>29.9</v>
+        <v>30.7</v>
       </c>
       <c r="H11" t="n">
         <v>53</v>
@@ -1244,7 +1244,7 @@
         <v>6564</v>
       </c>
       <c r="J11" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="K11" t="n">
         <v>29</v>
@@ -1253,7 +1253,7 @@
         <v>3965</v>
       </c>
       <c r="M11" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1274,13 +1274,13 @@
         <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U11" t="n">
-        <v>6615</v>
+        <v>6215</v>
       </c>
       <c r="V11" t="n">
-        <v>20.7</v>
+        <v>19.6</v>
       </c>
       <c r="W11" t="n">
         <v>41</v>
@@ -1289,10 +1289,10 @@
         <v>2652</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AA11" t="n">
         <v>131</v>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>26634</v>
+        <v>26579</v>
       </c>
       <c r="E14" t="n">
         <v>81</v>
@@ -1502,7 +1502,7 @@
         <v>10304.4</v>
       </c>
       <c r="G14" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="H14" t="n">
         <v>60</v>
@@ -1541,22 +1541,22 @@
         <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U14" t="n">
-        <v>3655</v>
+        <v>3530</v>
       </c>
       <c r="V14" t="n">
-        <v>13.7</v>
+        <v>13.3</v>
       </c>
       <c r="W14" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X14" t="n">
-        <v>2517</v>
+        <v>2587</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Z14" t="n">
         <v>239</v>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25477</v>
+        <v>25474</v>
       </c>
       <c r="E15" t="n">
         <v>74</v>
@@ -1597,7 +1597,7 @@
         <v>62</v>
       </c>
       <c r="I15" t="n">
-        <v>6321</v>
+        <v>6318</v>
       </c>
       <c r="J15" t="n">
         <v>24.8</v>
@@ -2027,16 +2027,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40406</v>
+        <v>40691</v>
       </c>
       <c r="E20" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" t="n">
-        <v>14357</v>
+        <v>14642</v>
       </c>
       <c r="G20" t="n">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
         <v>93</v>
@@ -2045,7 +2045,7 @@
         <v>10414</v>
       </c>
       <c r="J20" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="K20" t="n">
         <v>30</v>
@@ -2054,7 +2054,7 @@
         <v>4960</v>
       </c>
       <c r="M20" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>6820</v>
       </c>
       <c r="V20" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W20" t="n">
         <v>13</v>
@@ -2093,10 +2093,10 @@
         <v>2.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA20" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33450</v>
+        <v>33546</v>
       </c>
       <c r="E27" t="n">
         <v>91</v>
@@ -2659,7 +2659,7 @@
         <v>11971</v>
       </c>
       <c r="G27" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="H27" t="n">
         <v>69</v>
@@ -2668,7 +2668,7 @@
         <v>7964</v>
       </c>
       <c r="J27" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="K27" t="n">
         <v>33</v>
@@ -2704,19 +2704,19 @@
         <v>5585</v>
       </c>
       <c r="V27" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X27" t="n">
-        <v>1750</v>
+        <v>1846</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA27" t="n">
         <v>136</v>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>27446</v>
+        <v>28656</v>
       </c>
       <c r="E28" t="n">
         <v>95</v>
@@ -2748,16 +2748,16 @@
         <v>10930</v>
       </c>
       <c r="G28" t="n">
-        <v>39.8</v>
+        <v>38.1</v>
       </c>
       <c r="H28" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" t="n">
-        <v>6805</v>
+        <v>8015</v>
       </c>
       <c r="J28" t="n">
-        <v>24.8</v>
+        <v>28</v>
       </c>
       <c r="K28" t="n">
         <v>25</v>
@@ -2766,7 +2766,7 @@
         <v>2565</v>
       </c>
       <c r="M28" t="n">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
@@ -2775,7 +2775,7 @@
         <v>1190</v>
       </c>
       <c r="P28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>3860</v>
       </c>
       <c r="V28" t="n">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="W28" t="n">
         <v>45</v>
@@ -2802,13 +2802,13 @@
         <v>2096</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA28" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -3095,7 +3095,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>26728</v>
+        <v>26753</v>
       </c>
       <c r="E32" t="n">
         <v>85</v>
@@ -3152,16 +3152,16 @@
         <v>9.6</v>
       </c>
       <c r="W32" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X32" t="n">
-        <v>2724</v>
+        <v>2749</v>
       </c>
       <c r="Y32" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="Z32" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA32" t="n">
         <v>98</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>38775</v>
+        <v>39545</v>
       </c>
       <c r="E33" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F33" t="n">
-        <v>16249</v>
+        <v>16629</v>
       </c>
       <c r="G33" t="n">
-        <v>41.9</v>
+        <v>42.1</v>
       </c>
       <c r="H33" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I33" t="n">
-        <v>6640</v>
+        <v>7030</v>
       </c>
       <c r="J33" t="n">
-        <v>17.1</v>
+        <v>17.8</v>
       </c>
       <c r="K33" t="n">
         <v>30</v>
@@ -3211,7 +3211,7 @@
         <v>3595</v>
       </c>
       <c r="M33" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="N33" t="n">
         <v>3</v>
@@ -3220,7 +3220,7 @@
         <v>6150</v>
       </c>
       <c r="P33" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>4330</v>
       </c>
       <c r="V33" t="n">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="W33" t="n">
         <v>23</v>
@@ -3247,13 +3247,13 @@
         <v>1811</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AA33" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34">
@@ -3265,34 +3265,34 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>943873</v>
+        <v>949488</v>
       </c>
       <c r="E34" t="n">
-        <v>2731</v>
+        <v>2739</v>
       </c>
       <c r="F34" t="n">
-        <v>364422</v>
+        <v>365748</v>
       </c>
       <c r="G34" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2259</v>
+        <v>2265</v>
       </c>
       <c r="I34" t="n">
-        <v>231060</v>
+        <v>233092</v>
       </c>
       <c r="J34" t="n">
         <v>24.5</v>
       </c>
       <c r="K34" t="n">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="L34" t="n">
-        <v>94892</v>
+        <v>96608</v>
       </c>
       <c r="M34" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="N34" t="n">
         <v>34</v>
@@ -3301,7 +3301,7 @@
         <v>59165</v>
       </c>
       <c r="P34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Q34" t="n">
         <v>27</v>
@@ -3313,25 +3313,25 @@
         <v>0.6</v>
       </c>
       <c r="T34" t="n">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U34" t="n">
-        <v>129230</v>
+        <v>129235</v>
       </c>
       <c r="V34" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W34" t="n">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="X34" t="n">
-        <v>59369</v>
+        <v>59905</v>
       </c>
       <c r="Y34" t="n">
         <v>6.3</v>
       </c>
       <c r="Z34" t="n">
-        <v>7762</v>
+        <v>7800</v>
       </c>
       <c r="AA34" t="n">
         <v>122</v>
